--- a/biology/Zoologie/Hemiergis_initialis/Hemiergis_initialis.xlsx
+++ b/biology/Zoologie/Hemiergis_initialis/Hemiergis_initialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemiergis initialis est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemiergis initialis est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale et en Australie-Méridionale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale et en Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un saurien vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un saurien vivipare.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 septembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 septembre 2012) :
 Hemiergis initialis brookeri Storr, 1975
 Hemiergis initialis initialis (Werner, 1910)</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Storr, 1975 : The genus Hemiergis (Lacertilia: Scincidae) in Western Australia. Records of the Western Australian Museum, vol. 3, no 4, p. 251-260 (texte intégral).
 Werner, 1910 : Reptilia (Geckonidae und Scincidae). Die Fauna Südwest-Australiens, G. Fischer, Jena, vol. 2, p. 451-493 (texte intégral).</t>
